--- a/xlsx/中国科学技术协会_intext.xlsx
+++ b/xlsx/中国科学技术协会_intext.xlsx
@@ -29,7 +29,7 @@
     <t>万钢</t>
   </si>
   <si>
-    <t>政策_政策_智庫_中国科学技术协会</t>
+    <t>政策_政策_智库_中国科学技术协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E8%87%B4%E5%85%AC%E5%85%9A</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E9%96%93%E5%9C%98%E9%AB%94</t>
   </si>
   <si>
-    <t>民間團體</t>
+    <t>民间团体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E5%9B%9B%E5%85%89</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>醫學家</t>
+    <t>医学家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BD%9C%E6%B1%9F%E5%B8%82</t>
@@ -257,19 +257,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E7%A7%91%E5%AD%B8%E7%A4%BE</t>
   </si>
   <si>
-    <t>中國科學社</t>
+    <t>中国科学社</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%BA%AB</t>
   </si>
   <si>
-    <t>智庫</t>
+    <t>智库</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%A7%91%E5%AD%B8%E7%90%86%E4%BA%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>國際科學理事會</t>
+    <t>国际科学理事会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ghana_Academy_of_Arts_and_Sciences</t>
@@ -383,13 +383,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97%E7%A7%91%E5%AD%B8%E8%88%87%E4%BA%BA%E6%96%87%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>以色列科學與人文學院</t>
+    <t>以色列科学与人文学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%AD%B8%E8%A1%93%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>日本學術會議</t>
+    <t>日本学术会议</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Royal_Scientific_Society</t>
@@ -479,7 +479,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9%E7%A7%91%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>奧地利科學院</t>
+    <t>奥地利科学院</t>
   </si>
   <si>
     <t>https://de.wikipedia.org/wiki/%C3%96sterreichische_Akademie_der_Wissenschaften</t>
@@ -515,7 +515,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E%E7%A7%91%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>保加利亞科學院</t>
+    <t>保加利亚科学院</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Croatian_Academy_of_Sciences_and_Arts</t>
@@ -605,7 +605,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E7%9A%87%E5%AE%B6%E8%97%9D%E8%A1%93%E8%88%87%E7%A7%91%E5%AD%B8%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>荷蘭皇家藝術與科學學院</t>
+    <t>荷兰皇家艺术与科学学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81%E7%A7%91%E5%AD%A6%E4%B8%8E%E6%96%87%E5%AD%A6%E9%99%A2</t>
@@ -617,7 +617,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD%E7%A7%91%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>波蘭科學院</t>
+    <t>波兰科学院</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Polish_Academy_of_Sciences</t>
@@ -641,7 +641,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E7%A7%91%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>俄羅斯科學院</t>
+    <t>俄罗斯科学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B0%94%E7%BB%B4%E4%BA%9A%E6%96%87%E7%90%86%E5%AD%A6%E9%99%A2</t>
@@ -689,19 +689,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E5%BA%A7%E7%A7%91%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>宗座科學院</t>
+    <t>宗座科学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E7%A7%91%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>澳洲科學院</t>
+    <t>澳洲科学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%A5%BF%E8%98%AD%E7%9A%87%E5%AE%B6%E5%AD%B8%E6%9C%83</t>
   </si>
   <si>
-    <t>紐西蘭皇家學會</t>
+    <t>纽西兰皇家学会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%A4%A7%E5%AD%A6</t>
@@ -743,7 +743,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%A4%BE%E6%9C%83%E5%AD%B8%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>國際社會學協會</t>
+    <t>国际社会学协会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/International_Society_for_Photogrammetry_and_Remote_Sensing</t>
@@ -755,7 +755,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E4%BA%BA%E9%A1%9E%E5%AD%B8%E8%88%87%E6%B0%91%E6%97%8F%E5%AD%B8%E8%81%AF%E5%90%88%E6%9C%83</t>
   </si>
   <si>
-    <t>國際人類學與民族學聯合會</t>
+    <t>国际人类学与民族学联合会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/International_Union_of_Biochemistry_and_Molecular_Biology</t>
@@ -857,7 +857,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%9C%9F%E5%A3%A4%E7%A7%91%E5%AD%B8%E8%81%AF%E5%90%88%E6%9C%83</t>
   </si>
   <si>
-    <t>國際土壤科學聯合會</t>
+    <t>国际土壤科学联合会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/International_Union_of_Theoretical_and_Applied_Mechanics</t>
@@ -947,7 +947,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%B0%B4%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>國際水協會</t>
+    <t>国际水协会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Pacific_Science_Association</t>
@@ -1277,7 +1277,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E4%BA%BA%E6%B0%91%E6%94%BF%E6%B2%BB%E5%8D%94%E5%95%86%E6%9C%83%E8%AD%B0%E5%85%A8%E5%9C%8B%E5%A7%94%E5%93%A1%E6%9C%83%E9%A6%99%E6%B8%AF%E5%9C%B0%E5%8D%80%E5%A7%94%E5%93%A1</t>
   </si>
   <si>
-    <t>中國人民政治協商會議全國委員會香港地區委員</t>
+    <t>中国人民政治协商会议全国委员会香港地区委员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E4%BA%BA%E6%B0%91%E6%94%BF%E6%B2%BB%E5%8D%8F%E5%95%86%E4%BC%9A%E8%AE%AE%E5%85%A8%E5%9B%BD%E5%A7%94%E5%91%98%E4%BC%9A%E6%BE%B3%E9%97%A8%E5%9C%B0%E5%8C%BA%E5%A7%94%E5%91%98</t>
@@ -8155,7 +8155,7 @@
         <v>428</v>
       </c>
       <c r="G217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H217" t="s">
         <v>4</v>
@@ -8416,7 +8416,7 @@
         <v>446</v>
       </c>
       <c r="G226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H226" t="s">
         <v>4</v>
